--- a/liability_returns.xlsx
+++ b/liability_returns.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>Retirement</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Liability</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -8726,7 +8729,7 @@
     <col min="1" max="1001" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8736,8 +8739,11 @@
       <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8756,8 +8762,11 @@
       <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>40178</v>
       </c>
@@ -8785,8 +8794,14 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="3">
+        <v>40178</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>40209</v>
       </c>
@@ -8814,8 +8829,14 @@
       <c r="K4" s="1">
         <v>0.01438569789074218</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="3">
+        <v>40209</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.01579995548984114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>40237</v>
       </c>
@@ -8843,8 +8864,14 @@
       <c r="K5" s="1">
         <v>-0.002291744525068529</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="3">
+        <v>40237</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-0.001419218651521836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>40268</v>
       </c>
@@ -8872,8 +8899,14 @@
       <c r="K6" s="1">
         <v>-0.003942930616085638</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="3">
+        <v>40268</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-0.003703597911814627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>40298</v>
       </c>
@@ -8901,8 +8934,14 @@
       <c r="K7" s="1">
         <v>0.04144114405084509</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="3">
+        <v>40298</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.03932559018657966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>40329</v>
       </c>
@@ -8930,8 +8969,14 @@
       <c r="K8" s="1">
         <v>-0.0001932144455428775</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="3">
+        <v>40329</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.0004574703105615363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>40359</v>
       </c>
@@ -8959,8 +9004,14 @@
       <c r="K9" s="1">
         <v>0.05564668848960164</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="3">
+        <v>40359</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.05264338919404921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>40390</v>
       </c>
@@ -8988,8 +9039,14 @@
       <c r="K10" s="1">
         <v>0.01511592990593469</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="3">
+        <v>40390</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.01542394600040731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>40421</v>
       </c>
@@ -9017,8 +9074,14 @@
       <c r="K11" s="1">
         <v>0.0615368669346481</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="3">
+        <v>40421</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.05936072381296942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>40451</v>
       </c>
@@ -9046,8 +9109,14 @@
       <c r="K12" s="1">
         <v>-0.00967906006431829</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="3">
+        <v>40451</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-0.008955954024864821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>40482</v>
       </c>
@@ -9075,8 +9144,14 @@
       <c r="K13" s="1">
         <v>-0.03340365671584256</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="3">
+        <v>40482</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-0.03054250603633502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>40512</v>
       </c>
@@ -9104,8 +9179,14 @@
       <c r="K14" s="1">
         <v>-0.002203345310467286</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="3">
+        <v>40512</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-0.002592335571154902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>40543</v>
       </c>
@@ -9133,8 +9214,14 @@
       <c r="K15" s="1">
         <v>-0.0120199450601185</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="3">
+        <v>40543</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-0.01377257640198026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>40574</v>
       </c>
@@ -9162,8 +9249,14 @@
       <c r="K16" s="1">
         <v>-0.02627915767693545</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="3">
+        <v>40574</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-0.02335701787946787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>40602</v>
       </c>
@@ -9191,8 +9284,14 @@
       <c r="K17" s="1">
         <v>0.02147519392472907</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="3">
+        <v>40602</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.02034982989940914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>40633</v>
       </c>
@@ -9220,8 +9319,14 @@
       <c r="K18" s="1">
         <v>-0.009121998844030754</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="3">
+        <v>40633</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-0.008379396627396729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>40663</v>
       </c>
@@ -9249,8 +9354,14 @@
       <c r="K19" s="1">
         <v>0.02756662212004168</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="3">
+        <v>40663</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.02671960435544363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3">
         <v>40694</v>
       </c>
@@ -9278,8 +9389,14 @@
       <c r="K20" s="1">
         <v>0.02296808139024908</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="3">
+        <v>40694</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.02237078616100452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3">
         <v>40724</v>
       </c>
@@ -9307,8 +9424,14 @@
       <c r="K21" s="1">
         <v>-0.02325119976026735</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="3">
+        <v>40724</v>
+      </c>
+      <c r="N21" s="1">
+        <v>-0.02187402885451251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3">
         <v>40755</v>
       </c>
@@ -9336,8 +9459,14 @@
       <c r="K22" s="1">
         <v>0.0506306280415274</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="3">
+        <v>40755</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.0487422138668836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3">
         <v>40786</v>
       </c>
@@ -9365,8 +9494,14 @@
       <c r="K23" s="1">
         <v>0.02737288008087302</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="3">
+        <v>40786</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.02650305690507571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>40816</v>
       </c>
@@ -9394,8 +9529,14 @@
       <c r="K24" s="1">
         <v>0.07678939305639521</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="3">
+        <v>40816</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.06823777898640948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>40847</v>
       </c>
@@ -9423,8 +9564,14 @@
       <c r="K25" s="1">
         <v>0.003430414767061407</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="3">
+        <v>40847</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.00380998737872873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="3">
         <v>40877</v>
       </c>
@@ -9452,8 +9599,14 @@
       <c r="K26" s="1">
         <v>0.004397797968071826</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="3">
+        <v>40877</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.004176867581263677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>40908</v>
       </c>
@@ -9481,8 +9634,14 @@
       <c r="K27" s="1">
         <v>0.04909719053262696</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="3">
+        <v>40908</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.04644253991818914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>40939</v>
       </c>
@@ -9510,8 +9669,14 @@
       <c r="K28" s="1">
         <v>-0.0002809677358098783</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" s="3">
+        <v>40939</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.002450258628724944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>40968</v>
       </c>
@@ -9539,8 +9704,14 @@
       <c r="K29" s="1">
         <v>0.005540562020741602</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="3">
+        <v>40968</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.004994932937100183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>40999</v>
       </c>
@@ -9568,8 +9739,14 @@
       <c r="K30" s="1">
         <v>-0.03131158245291665</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="3">
+        <v>40999</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-0.0294630638679898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>41029</v>
       </c>
@@ -9597,8 +9774,14 @@
       <c r="K31" s="1">
         <v>0.02507122362656422</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="3">
+        <v>41029</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.02530466692617228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>41060</v>
       </c>
@@ -9626,8 +9809,14 @@
       <c r="K32" s="1">
         <v>0.0351368157440648</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="3">
+        <v>41060</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.03331944227897754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3">
         <v>41090</v>
       </c>
@@ -9655,8 +9844,14 @@
       <c r="K33" s="1">
         <v>0.03773217072096191</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="3">
+        <v>41090</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.03357617308703076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="3">
         <v>41121</v>
       </c>
@@ -9684,8 +9879,14 @@
       <c r="K34" s="1">
         <v>0.06969423739140823</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34" s="3">
+        <v>41121</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.06436551587028116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="3">
         <v>41152</v>
       </c>
@@ -9713,8 +9914,14 @@
       <c r="K35" s="1">
         <v>-0.01166362636506602</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35" s="3">
+        <v>41152</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-0.009627463786063828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="3">
         <v>41182</v>
       </c>
@@ -9742,8 +9949,14 @@
       <c r="K36" s="1">
         <v>-0.01384799321502872</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36" s="3">
+        <v>41182</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-0.01272478535459265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="3">
         <v>41213</v>
       </c>
@@ -9771,8 +9984,14 @@
       <c r="K37" s="1">
         <v>0.02175599349418023</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37" s="3">
+        <v>41213</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.02090306399204889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="3">
         <v>41243</v>
       </c>
@@ -9800,8 +10019,14 @@
       <c r="K38" s="1">
         <v>-0.009578878900786902</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38" s="3">
+        <v>41243</v>
+      </c>
+      <c r="N38" s="1">
+        <v>-0.00855090214178178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="3">
         <v>41274</v>
       </c>
@@ -9829,8 +10054,14 @@
       <c r="K39" s="1">
         <v>-0.01906192313811228</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39" s="3">
+        <v>41274</v>
+      </c>
+      <c r="N39" s="1">
+        <v>-0.01729300020597435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="3">
         <v>41305</v>
       </c>
@@ -9858,8 +10089,14 @@
       <c r="K40" s="1">
         <v>-0.03657266906166101</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40" s="3">
+        <v>41305</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-0.03539275320700996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="3">
         <v>41333</v>
       </c>
@@ -9887,8 +10124,14 @@
       <c r="K41" s="1">
         <v>0.01114130138165303</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41" s="3">
+        <v>41333</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.01089504134438624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="3">
         <v>41364</v>
       </c>
@@ -9916,8 +10159,14 @@
       <c r="K42" s="1">
         <v>-0.005778407993023649</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42" s="3">
+        <v>41364</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-0.004937244864442247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="3">
         <v>41394</v>
       </c>
@@ -9945,8 +10194,14 @@
       <c r="K43" s="1">
         <v>0.04400751931462499</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43" s="3">
+        <v>41394</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.04109474496913501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="3">
         <v>41425</v>
       </c>
@@ -9974,8 +10229,14 @@
       <c r="K44" s="1">
         <v>-0.06359533490869229</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44" s="3">
+        <v>41425</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-0.06009518654337498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="3">
         <v>41455</v>
       </c>
@@ -10003,8 +10264,14 @@
       <c r="K45" s="1">
         <v>-0.04377116634519151</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45" s="3">
+        <v>41455</v>
+      </c>
+      <c r="N45" s="1">
+        <v>-0.04145250510590393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="3">
         <v>41486</v>
       </c>
@@ -10032,8 +10299,14 @@
       <c r="K46" s="1">
         <v>0.002411921382180715</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46" s="3">
+        <v>41486</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.002213090170554155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="3">
         <v>41517</v>
       </c>
@@ -10061,8 +10334,14 @@
       <c r="K47" s="1">
         <v>-0.003514556541234559</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47" s="3">
+        <v>41517</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-0.003849090687179979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="3">
         <v>41547</v>
       </c>
@@ -10090,8 +10369,14 @@
       <c r="K48" s="1">
         <v>-0.002905321693659424</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="M48" s="3">
+        <v>41547</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-0.001083441582464095</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="3">
         <v>41578</v>
       </c>
@@ -10119,8 +10404,14 @@
       <c r="K49" s="1">
         <v>0.02093447866339693</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="M49" s="3">
+        <v>41578</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.02039877559845049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="3">
         <v>41608</v>
       </c>
@@ -10148,8 +10439,14 @@
       <c r="K50" s="1">
         <v>-0.01326940398701315</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50" s="3">
+        <v>41608</v>
+      </c>
+      <c r="N50" s="1">
+        <v>-0.01248015980682016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="3">
         <v>41639</v>
       </c>
@@ -10177,8 +10474,14 @@
       <c r="K51" s="1">
         <v>-0.001335941219157588</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="M51" s="3">
+        <v>41639</v>
+      </c>
+      <c r="N51" s="1">
+        <v>-0.001772822095351456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="3">
         <v>41670</v>
       </c>
@@ -10206,8 +10509,14 @@
       <c r="K52" s="1">
         <v>0.04548812561615589</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52" s="3">
+        <v>41670</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.04253435378322257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="3">
         <v>41698</v>
       </c>
@@ -10235,8 +10544,14 @@
       <c r="K53" s="1">
         <v>0.01801328826861348</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="M53" s="3">
+        <v>41698</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.01703242352364187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="3">
         <v>41729</v>
       </c>
@@ -10264,8 +10579,14 @@
       <c r="K54" s="1">
         <v>0.009301967433999137</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="M54" s="3">
+        <v>41729</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.008350809265108783</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="3">
         <v>41759</v>
       </c>
@@ -10293,8 +10614,14 @@
       <c r="K55" s="1">
         <v>0.02027772797295202</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="M55" s="3">
+        <v>41759</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.01916753811174843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="3">
         <v>41790</v>
       </c>
@@ -10322,8 +10649,14 @@
       <c r="K56" s="1">
         <v>0.02253100561933818</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="M56" s="3">
+        <v>41790</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.02203514757383562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="3">
         <v>41820</v>
       </c>
@@ -10351,8 +10684,14 @@
       <c r="K57" s="1">
         <v>0.0005474101988667268</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="M57" s="3">
+        <v>41820</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.0003508955254543089</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="3">
         <v>41851</v>
       </c>
@@ -10380,8 +10719,14 @@
       <c r="K58" s="1">
         <v>0.003535198945398221</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="M58" s="3">
+        <v>41851</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.003218363470034902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="3">
         <v>41882</v>
       </c>
@@ -10409,8 +10754,14 @@
       <c r="K59" s="1">
         <v>0.03900641654158932</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="M59" s="3">
+        <v>41882</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.03674355746495861</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="3">
         <v>41912</v>
       </c>
@@ -10438,8 +10789,14 @@
       <c r="K60" s="1">
         <v>-0.0297851060066282</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="M60" s="3">
+        <v>41912</v>
+      </c>
+      <c r="N60" s="1">
+        <v>-0.02794122905529017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="3">
         <v>41943</v>
       </c>
@@ -10467,8 +10824,14 @@
       <c r="K61" s="1">
         <v>0.02383161096984021</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="M61" s="3">
+        <v>41943</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.02226103725499584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="3">
         <v>41973</v>
       </c>
@@ -10496,8 +10859,14 @@
       <c r="K62" s="1">
         <v>0.02104794982750424</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="M62" s="3">
+        <v>41973</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.01993730067133148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="3">
         <v>42004</v>
       </c>
@@ -10525,8 +10894,14 @@
       <c r="K63" s="1">
         <v>0.0234875531680685</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="M63" s="3">
+        <v>42004</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.02125415199119596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="3">
         <v>42035</v>
       </c>
@@ -10554,8 +10929,14 @@
       <c r="K64" s="1">
         <v>0.08382681943935077</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="M64" s="3">
+        <v>42035</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.07683962627973329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="3">
         <v>42063</v>
       </c>
@@ -10583,8 +10964,14 @@
       <c r="K65" s="1">
         <v>-0.04219570510592485</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="M65" s="3">
+        <v>42063</v>
+      </c>
+      <c r="N65" s="1">
+        <v>-0.0381805077932359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="3">
         <v>42094</v>
       </c>
@@ -10612,8 +10999,14 @@
       <c r="K66" s="1">
         <v>0.004744244925095176</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="M66" s="3">
+        <v>42094</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.004272401582356089</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="3">
         <v>42124</v>
       </c>
@@ -10641,8 +11034,14 @@
       <c r="K67" s="1">
         <v>-0.02833383113577559</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="M67" s="3">
+        <v>42124</v>
+      </c>
+      <c r="N67" s="1">
+        <v>-0.02537082456945294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="3">
         <v>42155</v>
       </c>
@@ -10670,8 +11069,14 @@
       <c r="K68" s="1">
         <v>-0.02648618765315991</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="M68" s="3">
+        <v>42155</v>
+      </c>
+      <c r="N68" s="1">
+        <v>-0.02409566670808794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="3">
         <v>42185</v>
       </c>
@@ -10699,8 +11104,14 @@
       <c r="K69" s="1">
         <v>-0.04163247274698811</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="M69" s="3">
+        <v>42185</v>
+      </c>
+      <c r="N69" s="1">
+        <v>-0.03882688885661323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="3">
         <v>42216</v>
       </c>
@@ -10728,8 +11139,14 @@
       <c r="K70" s="1">
         <v>0.0245556348249103</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="M70" s="3">
+        <v>42216</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.02302639445746912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="3">
         <v>42247</v>
       </c>
@@ -10757,8 +11174,14 @@
       <c r="K71" s="1">
         <v>-0.008819823932694537</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="M71" s="3">
+        <v>42247</v>
+      </c>
+      <c r="N71" s="1">
+        <v>-0.008310448002971094</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="3">
         <v>42277</v>
       </c>
@@ -10786,8 +11209,14 @@
       <c r="K72" s="1">
         <v>0.01383885443056609</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="M72" s="3">
+        <v>42277</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.01409389305768172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="3">
         <v>42308</v>
       </c>
@@ -10815,8 +11244,14 @@
       <c r="K73" s="1">
         <v>0.006021986821751257</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="M73" s="3">
+        <v>42308</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.005899649381848171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="3">
         <v>42338</v>
       </c>
@@ -10844,8 +11279,14 @@
       <c r="K74" s="1">
         <v>0.001684451620798555</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="M74" s="3">
+        <v>42338</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0.001670048995307205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="3">
         <v>42369</v>
       </c>
@@ -10873,8 +11314,14 @@
       <c r="K75" s="1">
         <v>-0.0009116317055983814</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="M75" s="3">
+        <v>42369</v>
+      </c>
+      <c r="N75" s="1">
+        <v>-0.0009079994519949341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="3">
         <v>42400</v>
       </c>
@@ -10902,8 +11349,14 @@
       <c r="K76" s="1">
         <v>0.01242369273779187</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="M76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.01230263129065867</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="3">
         <v>42429</v>
       </c>
@@ -10931,8 +11384,14 @@
       <c r="K77" s="1">
         <v>0.02633859665480487</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="M77" s="3">
+        <v>42429</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.02471390671170437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="3">
         <v>42460</v>
       </c>
@@ -10960,8 +11419,14 @@
       <c r="K78" s="1">
         <v>0.04122858935196017</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="M78" s="3">
+        <v>42460</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.03915144939710746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="3">
         <v>42490</v>
       </c>
@@ -10989,8 +11454,14 @@
       <c r="K79" s="1">
         <v>0.0184635557838948</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="M79" s="3">
+        <v>42490</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0.01726354896062188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="3">
         <v>42521</v>
       </c>
@@ -11018,8 +11489,14 @@
       <c r="K80" s="1">
         <v>-0.002313746263358119</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="M80" s="3">
+        <v>42521</v>
+      </c>
+      <c r="N80" s="1">
+        <v>-0.002058333437214732</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="3">
         <v>42551</v>
       </c>
@@ -11047,8 +11524,14 @@
       <c r="K81" s="1">
         <v>0.0467212793259002</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="M81" s="3">
+        <v>42551</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0.04441906926885753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="3">
         <v>42582</v>
       </c>
@@ -11076,8 +11559,14 @@
       <c r="K82" s="1">
         <v>0.02739416747118772</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="M82" s="3">
+        <v>42582</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0.02565940492330587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="3">
         <v>42613</v>
       </c>
@@ -11105,8 +11594,14 @@
       <c r="K83" s="1">
         <v>0.002170986210448422</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="M83" s="3">
+        <v>42613</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0.001314834823973321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="3">
         <v>42643</v>
       </c>
@@ -11134,8 +11629,14 @@
       <c r="K84" s="1">
         <v>-0.01586237009398284</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="M84" s="3">
+        <v>42643</v>
+      </c>
+      <c r="N84" s="1">
+        <v>-0.01448945292602366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="3">
         <v>42674</v>
       </c>
@@ -11163,8 +11664,14 @@
       <c r="K85" s="1">
         <v>-0.03065882234738104</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="M85" s="3">
+        <v>42674</v>
+      </c>
+      <c r="N85" s="1">
+        <v>-0.02845498014174752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="3">
         <v>42704</v>
       </c>
@@ -11192,8 +11699,14 @@
       <c r="K86" s="1">
         <v>-0.05764615453790833</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="M86" s="3">
+        <v>42704</v>
+      </c>
+      <c r="N86" s="1">
+        <v>-0.0547200977121417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="3">
         <v>42735</v>
       </c>
@@ -11221,8 +11734,14 @@
       <c r="K87" s="1">
         <v>0.002901925602097899</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="M87" s="3">
+        <v>42735</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.001990167114387376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="3">
         <v>42766</v>
       </c>
@@ -11250,8 +11769,14 @@
       <c r="K88" s="1">
         <v>0.0001755723461032144</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="M88" s="3">
+        <v>42766</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0.0003362711072583124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="3">
         <v>42794</v>
       </c>
@@ -11279,8 +11804,14 @@
       <c r="K89" s="1">
         <v>0.02352244687340499</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="M89" s="3">
+        <v>42794</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0.02231776407618247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="3">
         <v>42825</v>
       </c>
@@ -11308,8 +11839,14 @@
       <c r="K90" s="1">
         <v>-0.009856780476962257</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="M90" s="3">
+        <v>42825</v>
+      </c>
+      <c r="N90" s="1">
+        <v>-0.009125017091495602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="3">
         <v>42855</v>
       </c>
@@ -11337,8 +11874,14 @@
       <c r="K91" s="1">
         <v>0.0175898837376367</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="M91" s="3">
+        <v>42855</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.01707578656481501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="3">
         <v>42886</v>
       </c>
@@ -11366,8 +11909,14 @@
       <c r="K92" s="1">
         <v>0.02281363035984407</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="M92" s="3">
+        <v>42886</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.02141490454111716</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="3">
         <v>42916</v>
       </c>
@@ -11395,8 +11944,14 @@
       <c r="K93" s="1">
         <v>0.009409456286397999</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="M93" s="3">
+        <v>42916</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.00822631624157677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="3">
         <v>42947</v>
       </c>
@@ -11424,8 +11979,14 @@
       <c r="K94" s="1">
         <v>0.006697956496294122</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="M94" s="3">
+        <v>42947</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0.00664241416669098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="3">
         <v>42978</v>
       </c>
@@ -11453,8 +12014,14 @@
       <c r="K95" s="1">
         <v>0.01838918541884538</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="M95" s="3">
+        <v>42978</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.01760224150611367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="3">
         <v>43008</v>
       </c>
@@ -11482,8 +12049,14 @@
       <c r="K96" s="1">
         <v>-0.008066704953274773</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="M96" s="3">
+        <v>43008</v>
+      </c>
+      <c r="N96" s="1">
+        <v>-0.007843937498928311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="3">
         <v>43039</v>
       </c>
@@ -11511,8 +12084,14 @@
       <c r="K97" s="1">
         <v>0.009977281746390343</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="M97" s="3">
+        <v>43039</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0.009260639579865337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="3">
         <v>43069</v>
       </c>
@@ -11540,8 +12119,14 @@
       <c r="K98" s="1">
         <v>0.002805065935152617</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="M98" s="3">
+        <v>43069</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0.002075678658953084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="3">
         <v>43100</v>
       </c>
@@ -11569,8 +12154,14 @@
       <c r="K99" s="1">
         <v>0.03156421864837333</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="M99" s="3">
+        <v>43100</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0.02904408125095403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="3">
         <v>43131</v>
       </c>
@@ -11598,8 +12189,14 @@
       <c r="K100" s="1">
         <v>-0.02813600899797541</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="M100" s="3">
+        <v>43131</v>
+      </c>
+      <c r="N100" s="1">
+        <v>-0.02681787551586101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="3">
         <v>43159</v>
       </c>
@@ -11627,8 +12224,14 @@
       <c r="K101" s="1">
         <v>-0.03371884039798279</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="M101" s="3">
+        <v>43159</v>
+      </c>
+      <c r="N101" s="1">
+        <v>-0.03153483304342619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="3">
         <v>43190</v>
       </c>
@@ -11656,8 +12259,14 @@
       <c r="K102" s="1">
         <v>0.01100931299963359</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="M102" s="3">
+        <v>43190</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0.01021406829374993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="3">
         <v>43220</v>
       </c>
@@ -11685,8 +12294,14 @@
       <c r="K103" s="1">
         <v>-0.01659710068981313</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="M103" s="3">
+        <v>43220</v>
+      </c>
+      <c r="N103" s="1">
+        <v>-0.01552684293710582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="3">
         <v>43251</v>
       </c>
@@ -11714,8 +12329,14 @@
       <c r="K104" s="1">
         <v>0.01283197894308263</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="M104" s="3">
+        <v>43251</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0.01223131577845415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="3">
         <v>43281</v>
       </c>
@@ -11743,8 +12364,14 @@
       <c r="K105" s="1">
         <v>-0.01576851159980974</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="M105" s="3">
+        <v>43281</v>
+      </c>
+      <c r="N105" s="1">
+        <v>-0.01495296797487722</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="3">
         <v>43312</v>
       </c>
@@ -11772,8 +12399,14 @@
       <c r="K106" s="1">
         <v>0.009698278852918074</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="M106" s="3">
+        <v>43312</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0.009087137296139858</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="3">
         <v>43343</v>
       </c>
@@ -11801,8 +12434,14 @@
       <c r="K107" s="1">
         <v>0.009273553616532926</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="M107" s="3">
+        <v>43343</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0.009176951145634549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="3">
         <v>43373</v>
       </c>
@@ -11830,8 +12469,14 @@
       <c r="K108" s="1">
         <v>-0.01467341326473037</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="M108" s="3">
+        <v>43373</v>
+      </c>
+      <c r="N108" s="1">
+        <v>-0.01384028414866545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="3">
         <v>43404</v>
       </c>
@@ -11859,8 +12504,14 @@
       <c r="K109" s="1">
         <v>-0.03805540363704685</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="M109" s="3">
+        <v>43404</v>
+      </c>
+      <c r="N109" s="1">
+        <v>-0.03497645024277918</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="3">
         <v>43434</v>
       </c>
@@ -11888,8 +12539,14 @@
       <c r="K110" s="1">
         <v>0.0040949820233529</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="M110" s="3">
+        <v>43434</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0.004155392315153827</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="3">
         <v>43465</v>
       </c>
@@ -11917,8 +12574,14 @@
       <c r="K111" s="1">
         <v>0.04066442234476342</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="M111" s="3">
+        <v>43465</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0.03818740081856897</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="3">
         <v>43496</v>
       </c>
@@ -11946,8 +12609,14 @@
       <c r="K112" s="1">
         <v>0.02977798312915558</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="M112" s="3">
+        <v>43496</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0.02898954299835466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="3">
         <v>43524</v>
       </c>
@@ -11975,8 +12644,14 @@
       <c r="K113" s="1">
         <v>-0.00443011696543183</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="M113" s="3">
+        <v>43524</v>
+      </c>
+      <c r="N113" s="1">
+        <v>-0.003959857095636066</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="3">
         <v>43555</v>
       </c>
@@ -12004,8 +12679,14 @@
       <c r="K114" s="1">
         <v>0.05138409719921633</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="M114" s="3">
+        <v>43555</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0.04885140585023362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="3">
         <v>43585</v>
       </c>
@@ -12033,8 +12714,14 @@
       <c r="K115" s="1">
         <v>-0.01016223901781343</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="M115" s="3">
+        <v>43585</v>
+      </c>
+      <c r="N115" s="1">
+        <v>-0.009255525163179512</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="3">
         <v>43616</v>
       </c>
@@ -12062,8 +12749,14 @@
       <c r="K116" s="1">
         <v>0.04156702621859498</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="M116" s="3">
+        <v>43616</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0.03918012372740276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="3">
         <v>43646</v>
       </c>
@@ -12091,8 +12784,14 @@
       <c r="K117" s="1">
         <v>0.03476636824499257</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="M117" s="3">
+        <v>43646</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0.03306643030320489</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="3">
         <v>43677</v>
       </c>
@@ -12120,8 +12819,14 @@
       <c r="K118" s="1">
         <v>0.01506305015309706</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="M118" s="3">
+        <v>43677</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0.01417962751734381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="3">
         <v>43708</v>
       </c>
@@ -12149,8 +12854,14 @@
       <c r="K119" s="1">
         <v>0.08301069640090253</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="M119" s="3">
+        <v>43708</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0.076910580299417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="3">
         <v>43738</v>
       </c>
@@ -12178,8 +12889,14 @@
       <c r="K120" s="1">
         <v>-0.02163079748784513</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="M120" s="3">
+        <v>43738</v>
+      </c>
+      <c r="N120" s="1">
+        <v>-0.02015263589152771</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="3">
         <v>43769</v>
       </c>
@@ -12207,8 +12924,14 @@
       <c r="K121" s="1">
         <v>0.002722055892452113</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="M121" s="3">
+        <v>43769</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0.002982513510753515</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="3">
         <v>43799</v>
       </c>
@@ -12236,8 +12959,14 @@
       <c r="K122" s="1">
         <v>0.002245085871252384</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="M122" s="3">
+        <v>43799</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0.00160517622461831</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="3">
         <v>43830</v>
       </c>
@@ -12265,8 +12994,14 @@
       <c r="K123" s="1">
         <v>-0.01334259093865975</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="M123" s="3">
+        <v>43830</v>
+      </c>
+      <c r="N123" s="1">
+        <v>-0.01207478184023747</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="3">
         <v>43861</v>
       </c>
@@ -12294,8 +13029,14 @@
       <c r="K124" s="1">
         <v>0.06018087152000384</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="M124" s="3">
+        <v>43861</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0.05631609422564288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="3">
         <v>43890</v>
       </c>
@@ -12323,8 +13064,14 @@
       <c r="K125" s="1">
         <v>0.03163413005754179</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="M125" s="3">
+        <v>43890</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0.02991306981759467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="3">
         <v>43921</v>
       </c>
@@ -12352,8 +13099,14 @@
       <c r="K126" s="1">
         <v>-0.06369879109027643</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="M126" s="3">
+        <v>43921</v>
+      </c>
+      <c r="N126" s="1">
+        <v>-0.06127956432800497</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="3">
         <v>43951</v>
       </c>
@@ -12381,8 +13134,14 @@
       <c r="K127" s="1">
         <v>0.06698336943276906</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="M127" s="3">
+        <v>43951</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0.06533621700935544</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="3">
         <v>43982</v>
       </c>
@@ -12410,8 +13169,14 @@
       <c r="K128" s="1">
         <v>0.008419287401235431</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="M128" s="3">
+        <v>43982</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0.009636906339384632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="3">
         <v>44012</v>
       </c>
@@ -12439,8 +13204,14 @@
       <c r="K129" s="1">
         <v>0.01670123619438657</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="M129" s="3">
+        <v>44012</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0.01557002192950185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="3">
         <v>44043</v>
       </c>
@@ -12468,8 +13239,14 @@
       <c r="K130" s="1">
         <v>0.07792699852217799</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="M130" s="3">
+        <v>44043</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0.07209608389949218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="3">
         <v>44074</v>
       </c>
@@ -12497,8 +13274,14 @@
       <c r="K131" s="1">
         <v>-0.06007231526634704</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="M131" s="3">
+        <v>44074</v>
+      </c>
+      <c r="N131" s="1">
+        <v>-0.05494780937827559</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="3">
         <v>44104</v>
       </c>
@@ -12526,8 +13309,14 @@
       <c r="K132" s="1">
         <v>0.003242935054636797</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="M132" s="3">
+        <v>44104</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0.00280275561283716</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="3">
         <v>44135</v>
       </c>
@@ -12555,8 +13344,14 @@
       <c r="K133" s="1">
         <v>-0.0214419782394224</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="M133" s="3">
+        <v>44135</v>
+      </c>
+      <c r="N133" s="1">
+        <v>-0.01959162258663005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="3">
         <v>44165</v>
       </c>
@@ -12584,8 +13379,14 @@
       <c r="K134" s="1">
         <v>0.05353627923096083</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="M134" s="3">
+        <v>44165</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0.04859215802771799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="3">
         <v>44196</v>
       </c>
@@ -12613,8 +13414,14 @@
       <c r="K135" s="1">
         <v>-0.001928046282650087</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="M135" s="3">
+        <v>44196</v>
+      </c>
+      <c r="N135" s="1">
+        <v>-0.001734819192700465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="3">
         <v>44227</v>
       </c>
@@ -12642,8 +13449,14 @@
       <c r="K136" s="1">
         <v>-0.03681628195943076</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="M136" s="3">
+        <v>44227</v>
+      </c>
+      <c r="N136" s="1">
+        <v>-0.03402022698822083</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="3">
         <v>44255</v>
       </c>
@@ -12671,8 +13484,14 @@
       <c r="K137" s="1">
         <v>-0.04417857620930388</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="M137" s="3">
+        <v>44255</v>
+      </c>
+      <c r="N137" s="1">
+        <v>-0.04173283896234703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="3">
         <v>44286</v>
       </c>
@@ -12700,8 +13519,14 @@
       <c r="K138" s="1">
         <v>-0.0375928885685699</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="M138" s="3">
+        <v>44286</v>
+      </c>
+      <c r="N138" s="1">
+        <v>-0.03586152948122123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="3">
         <v>44316</v>
       </c>
@@ -12729,8 +13554,14 @@
       <c r="K139" s="1">
         <v>0.0267082919939734</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="M139" s="3">
+        <v>44316</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0.02523507907985523</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="3">
         <v>44347</v>
       </c>
@@ -12758,8 +13589,14 @@
       <c r="K140" s="1">
         <v>0.005219939621679881</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="M140" s="3">
+        <v>44347</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0.005258336917010276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="3">
         <v>44377</v>
       </c>
@@ -12787,8 +13624,14 @@
       <c r="K141" s="1">
         <v>0.04504980948355897</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="M141" s="3">
+        <v>44377</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0.04141248970172318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="3">
         <v>44408</v>
       </c>
@@ -12816,8 +13659,14 @@
       <c r="K142" s="1">
         <v>0.02699278254988924</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="M142" s="3">
+        <v>44408</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0.02555813842455512</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="3">
         <v>44439</v>
       </c>
@@ -12845,8 +13694,14 @@
       <c r="K143" s="1">
         <v>-0.006891173682274099</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="M143" s="3">
+        <v>44439</v>
+      </c>
+      <c r="N143" s="1">
+        <v>-0.00648976377249133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="3">
         <v>44469</v>
       </c>
@@ -12874,8 +13729,14 @@
       <c r="K144" s="1">
         <v>-0.02021526572741805</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="M144" s="3">
+        <v>44469</v>
+      </c>
+      <c r="N144" s="1">
+        <v>-0.01896545299947772</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="3">
         <v>44500</v>
       </c>
@@ -12903,8 +13764,14 @@
       <c r="K145" s="1">
         <v>0.01913160882056353</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="M145" s="3">
+        <v>44500</v>
+      </c>
+      <c r="N145" s="1">
+        <v>0.01630358420738465</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="3">
         <v>44530</v>
       </c>
@@ -12932,8 +13799,14 @@
       <c r="K146" s="1">
         <v>0.0062529463549863</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="M146" s="3">
+        <v>44530</v>
+      </c>
+      <c r="N146" s="1">
+        <v>0.005811754595907104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="3">
         <v>44561</v>
       </c>
@@ -12960,6 +13833,12 @@
       </c>
       <c r="K147" s="1">
         <v>-0.01195453171014516</v>
+      </c>
+      <c r="M147" s="3">
+        <v>44561</v>
+      </c>
+      <c r="N147" s="1">
+        <v>-0.01063382979257177</v>
       </c>
     </row>
   </sheetData>
@@ -12972,25 +13851,47 @@
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E147">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G147">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(F3))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I147">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="7">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K147">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
       <formula>LEN(TRIM(J3))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M147">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="10">
+      <formula>LEN(TRIM(M2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N147">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="11">
+      <formula>LEN(TRIM(N3))&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
